--- a/hyperlinker/app/referencesheets/MLS Intake Paralegal Splitter.xlsx
+++ b/hyperlinker/app/referencesheets/MLS Intake Paralegal Splitter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrene\Python\GitPython\hyperlinker\app\referencesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF11FA95-2E11-4966-A681-4EAD51E79FB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97902A8-6A21-4A6E-9B13-F5C29D08A289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{4180EAC3-DA45-4891-B57C-B18591B224AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Delgadillo, Omar</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Latterner, Matt J</t>
   </si>
   <si>
-    <t>Robles-Castillo, Camila J</t>
-  </si>
-  <si>
     <t>Tilyayeva, Rakhil</t>
   </si>
   <si>
@@ -66,15 +63,9 @@
     <t>Spencer, Eleanor G</t>
   </si>
   <si>
-    <t>Wilkes, Nicole</t>
-  </si>
-  <si>
     <t>Allen, Sharette</t>
   </si>
   <si>
-    <t>Ortiz, Matthew B</t>
-  </si>
-  <si>
     <t>Sun, Dao</t>
   </si>
   <si>
@@ -99,21 +90,12 @@
     <t>Duffy-Greaves, Kevin</t>
   </si>
   <si>
-    <t>Freeman, Daniel A</t>
-  </si>
-  <si>
-    <t>Gokhale, Aparna S</t>
-  </si>
-  <si>
     <t>Gonzalez, Matias</t>
   </si>
   <si>
     <t>Gonzalez, Matias G</t>
   </si>
   <si>
-    <t>Labossiere, Samantha J.</t>
-  </si>
-  <si>
     <t>Shah, Ami Mahendra</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>Almanzar, Milagros</t>
   </si>
   <si>
-    <t>Briggs, John M</t>
-  </si>
-  <si>
     <t>Dittakavi, Archana</t>
   </si>
   <si>
@@ -141,27 +120,15 @@
     <t>Kelly, Kitanya</t>
   </si>
   <si>
-    <t>Mottley, Darlene</t>
-  </si>
-  <si>
     <t>Yamasaki, Emily Woo J</t>
   </si>
   <si>
-    <t>McCune, Mary</t>
-  </si>
-  <si>
-    <t>Vogltanz, Amy K</t>
-  </si>
-  <si>
     <t>Garcia, Keiannis</t>
   </si>
   <si>
     <t>Braudy, Erica</t>
   </si>
   <si>
-    <t>Kulig, Jessica M</t>
-  </si>
-  <si>
     <t>Mercedes, Jannelys J</t>
   </si>
   <si>
@@ -177,24 +144,6 @@
     <t>Sanchez, Dennis</t>
   </si>
   <si>
-    <t>Acron, Denise D</t>
-  </si>
-  <si>
-    <t>Anunkor, Ifeoma O</t>
-  </si>
-  <si>
-    <t>Reyes, Nicole V</t>
-  </si>
-  <si>
-    <t>Vega, Rita</t>
-  </si>
-  <si>
-    <t>Acosta, Rosa F</t>
-  </si>
-  <si>
-    <t>Rosa A.</t>
-  </si>
-  <si>
     <t>Dennis S.</t>
   </si>
   <si>
@@ -204,10 +153,64 @@
     <t>Diana G.</t>
   </si>
   <si>
-    <t>Diana V.</t>
-  </si>
-  <si>
     <t>Evelyn V.</t>
+  </si>
+  <si>
+    <t>Diana V. &amp; Christine D.</t>
+  </si>
+  <si>
+    <t>Gelly-Rahim, Jibril</t>
+  </si>
+  <si>
+    <t>Shamid, Sadia</t>
+  </si>
+  <si>
+    <t>Tony V.</t>
+  </si>
+  <si>
+    <t>Ayla T.</t>
+  </si>
+  <si>
+    <t>Tenorio Bocangel, Maricella</t>
+  </si>
+  <si>
+    <t>Villanueva, Anthony</t>
+  </si>
+  <si>
+    <t>Trinidad, Ayla</t>
+  </si>
+  <si>
+    <t>Avila, Giselle L</t>
+  </si>
+  <si>
+    <t>Rockett, Molly C</t>
+  </si>
+  <si>
+    <t>De Jesus, Christine</t>
+  </si>
+  <si>
+    <t>Flores, Aida</t>
+  </si>
+  <si>
+    <t>Price, Adriana J</t>
+  </si>
+  <si>
+    <t>Chow, Corrin G</t>
+  </si>
+  <si>
+    <t>Whedon, Rebecca V</t>
+  </si>
+  <si>
+    <t>Mattar, Amira M</t>
+  </si>
+  <si>
+    <t>Arboleda, Heather M</t>
+  </si>
+  <si>
+    <t>Grater, Ashley P</t>
+  </si>
+  <si>
+    <t>Harris, Tycel M</t>
   </si>
 </sst>
 </file>
@@ -231,15 +234,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -247,13 +256,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,9 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B881308-06C9-4341-A852-3948CFDA2641}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -590,227 +619,214 @@
     <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/hyperlinker/app/referencesheets/MLS Intake Paralegal Splitter.xlsx
+++ b/hyperlinker/app/referencesheets/MLS Intake Paralegal Splitter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrene\Python\GitPython\hyperlinker\app\referencesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97902A8-6A21-4A6E-9B13-F5C29D08A289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB23CB85-9239-468B-9F1F-092DF84D54B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{4180EAC3-DA45-4891-B57C-B18591B224AC}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>Villanueva, Anthony</t>
   </si>
   <si>
-    <t>Trinidad, Ayla</t>
-  </si>
-  <si>
     <t>Avila, Giselle L</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Harris, Tycel M</t>
+  </si>
+  <si>
+    <t>Trinidad, Ayla A</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>19</v>
@@ -709,7 +709,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -735,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -746,7 +746,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -766,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -781,12 +781,12 @@
         <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>23</v>
@@ -803,16 +803,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>49</v>
@@ -823,10 +823,10 @@
         <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
